--- a/data/trans_dic/P78D$hipoteca_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78D$hipoteca_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,7 +580,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,22</t>
+          <t>0,0; 0,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +590,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,15</t>
+          <t>0,0; 0,1</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,21</t>
+          <t>0,55; 3,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,1</t>
+          <t>0,28; 2,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,12</t>
+          <t>0,56; 2,12</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,01</t>
+          <t>0,8; 3,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,49</t>
+          <t>0,66; 2,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,39</t>
+          <t>0,98; 2,42</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,83</t>
+          <t>0,26; 1,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,38</t>
+          <t>0,35; 1,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,39</t>
+          <t>0,45; 1,45</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,33</t>
+          <t>0,39; 2,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,77</t>
+          <t>0,48; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,78</t>
+          <t>0,54; 1,72</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,71</t>
+          <t>0,18; 1,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>0,0; 0,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,67</t>
+          <t>0,07; 0,74</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,34</t>
+          <t>0,57; 1,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,92</t>
+          <t>0,45; 0,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,01</t>
+          <t>0,58; 0,98</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido, al menos, algún retraso en el pago de la hipoteca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 856</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2833</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 680</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5917</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9724</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2286; 13931</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1194; 9467</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4705; 17976</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8453</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8237</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16691</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4183; 16857</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3808; 14140</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10744; 26690</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13344</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2301; 16458</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2446; 10132</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6980; 22700</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6048</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11072</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2128; 13283</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2540; 9820</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5791; 18449</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2709</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>632; 6022</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2542</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>633; 7067</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1178</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 926</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1015</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>30787</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>22913</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>53701</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>19220; 43545</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>15782; 31473</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>39957; 67455</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>